--- a/data/trans_bre/P57_AC_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P57_AC_R-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-0.06167982494620361</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-0.7473441991126872</v>
+        <v>-0.7473441991127094</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.05965557444223721</v>
@@ -649,7 +649,7 @@
         <v>-0.0007351900613202435</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.009901844872850977</v>
+        <v>-0.00990184487285127</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-9.520787317239455</v>
+        <v>-9.226079317600391</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.028134842154466</v>
+        <v>1.640750605471705</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.034428401136393</v>
+        <v>-3.392119811175449</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-6.230759583162169</v>
+        <v>-5.970397704720284</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1275402375274167</v>
+        <v>-0.1217277349417987</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03018663900301396</v>
+        <v>0.02361334152670524</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.03567878729316955</v>
+        <v>-0.03933478360042057</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.07960853985529869</v>
+        <v>-0.07525108625153203</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4376553340589304</v>
+        <v>0.4175283586756228</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.889713704720979</v>
+        <v>9.693988997558836</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.937270269817505</v>
+        <v>3.214079231097427</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.604156726202213</v>
+        <v>5.307321652065472</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.006307492046694969</v>
+        <v>0.006888584268730112</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1539159176805694</v>
+        <v>0.1475881038239081</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03576080993589765</v>
+        <v>0.03932476193113701</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.07840583973483142</v>
+        <v>0.07450460585305874</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>3.901818053183204</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-0.3407652401134276</v>
+        <v>-0.3407652401134165</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07497245391552208</v>
@@ -749,7 +749,7 @@
         <v>0.04870105052458926</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.004739718420636822</v>
+        <v>-0.004739718420636667</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7862044774727088</v>
+        <v>0.7357222521183535</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>5.978308203727908</v>
+        <v>5.950098479495018</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3333733697328385</v>
+        <v>0.3803844195470046</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-4.286141579628524</v>
+        <v>-4.370495320410298</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.0111814012684633</v>
+        <v>0.0104355309944517</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08580259143194312</v>
+        <v>0.08536025103983143</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.003627135543733553</v>
+        <v>0.004399302865038804</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.0580131470882779</v>
+        <v>-0.05830074383745128</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>8.645225436129769</v>
+        <v>8.688415682598121</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>14.14012119001677</v>
+        <v>14.12675641140449</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.682432364391413</v>
+        <v>7.239140618791358</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.093378144417321</v>
+        <v>3.868255246054149</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1332101055357859</v>
+        <v>0.1337642058085432</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2233931592300622</v>
+        <v>0.2209950454024764</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0986376467699195</v>
+        <v>0.09302096075409795</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.05847037166589009</v>
+        <v>0.05676610972911983</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>1.904704686599135</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.2269450631509518</v>
+        <v>0.2269450631509407</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1080535750060159</v>
@@ -849,7 +849,7 @@
         <v>0.024231392799841</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.003884606119546421</v>
+        <v>0.003884606119546231</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.149918954527463</v>
+        <v>3.051055840957342</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.537359581503825</v>
+        <v>2.686925902263397</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.295041102542239</v>
+        <v>-2.071930742617976</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.216626133867008</v>
+        <v>-4.11344081395238</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.04692376826365483</v>
+        <v>0.04397904037647903</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03635910796055938</v>
+        <v>0.03818271870754231</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.02836039324684423</v>
+        <v>-0.02542750480981628</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.06881971228090127</v>
+        <v>-0.06771618801354146</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.44247532052611</v>
+        <v>11.02926124880244</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11.20444406814379</v>
+        <v>11.34624728343576</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.619778562061576</v>
+        <v>6.453321127740868</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.185432901146527</v>
+        <v>4.678948460947228</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1792876758829444</v>
+        <v>0.1733985543075244</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1697040282448871</v>
+        <v>0.173851049029171</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07301200468748471</v>
+        <v>0.08489535397341515</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.07555033798182971</v>
+        <v>0.08555917525885931</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-10.57976727966817</v>
+        <v>-10.02681174211471</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-5.51446750002294</v>
+        <v>-5.580468883106908</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.836402125882607</v>
+        <v>3.041128519985156</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-3.362109199428289</v>
+        <v>-3.086941731549214</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1452967622623976</v>
+        <v>-0.1408594261405778</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.08836780629821339</v>
+        <v>-0.08976273177708696</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04005480112289978</v>
+        <v>0.04490257321520692</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.0623487924678491</v>
+        <v>-0.05553033514352464</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.929232081139236</v>
+        <v>3.508808148083758</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.599700849622437</v>
+        <v>8.223463539592371</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>14.80040571135449</v>
+        <v>14.69889784433975</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.96199863065302</v>
+        <v>5.850145749001178</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.04257134966291588</v>
+        <v>0.05150133689385292</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1376499947799036</v>
+        <v>0.1496217417992774</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2356838155203169</v>
+        <v>0.23306213628864</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1220786067266743</v>
+        <v>0.1184224038513803</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4370023106347207</v>
+        <v>0.2991063691845818</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.641670079954689</v>
+        <v>4.694308363408775</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.069500401919331</v>
+        <v>1.049224396947248</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.041687097482403</v>
+        <v>-1.267391352325804</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.00639642524214974</v>
+        <v>0.004305960740447452</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06844486077928257</v>
+        <v>0.06928235446556884</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0133310467512404</v>
+        <v>0.01301449081021541</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.0162524402819627</v>
+        <v>-0.01974114616107213</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.838524190734165</v>
+        <v>4.904278648281457</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.088176670096702</v>
+        <v>9.096850562538329</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.93622781463565</v>
+        <v>5.165401261815612</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.679901437412404</v>
+        <v>3.513998135525683</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.07411007316481079</v>
+        <v>0.07328543594406309</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.139271930775204</v>
+        <v>0.1380380885640801</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06356468612320189</v>
+        <v>0.06594292417819055</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.06042302140483436</v>
+        <v>0.05737412121703497</v>
       </c>
     </row>
     <row r="19">
